--- a/xlsx/托马斯·萨金特_intext.xlsx
+++ b/xlsx/托马斯·萨金特_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>托马斯·萨金特</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_托马斯·萨金特</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_托马斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約大學</t>
+    <t>纽约大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓州大學</t>
+    <t>宾州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>總體經濟學</t>
+    <t>总体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%BA%8F%E5%88%97</t>
   </si>
   <si>
-    <t>時間序列</t>
+    <t>时间序列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%B7%B4%E7%BE%85</t>
   </si>
   <si>
-    <t>羅伯特·巴羅</t>
+    <t>罗伯特·巴罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%A2%84%E6%9C%9F%E5%AD%A6%E6%B4%BE</t>
@@ -155,9 +155,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
   </si>
   <si>
@@ -173,19 +170,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
+    <t>斯坦福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>計量經濟學會</t>
+    <t>计量经济学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>首爾大學</t>
+    <t>首尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%A5%96%E8%8E%B7%E5%BE%97%E8%80%85</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E5%BA%93%E5%85%B9%E6%B6%85%E8%8C%A8</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E8%92%82%E5%B0%94%C2%B7%E5%A5%A5%E6%9E%97</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>西奧多·威廉·舒爾茨</t>
+    <t>西奥多·威廉·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -305,37 +302,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E9%A6%AC%E5%8F%AF%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈利·馬可維茲</t>
+    <t>哈利·马可维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E9%A1%BF%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%A6%8F%E6%A0%BC%E5%B0%94</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E5%85%8B%E6%9B%BC</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8E%89%E8%AF%BA%C2%B7%E5%A5%A5%E6%96%AF%E7%89%B9%E7%BD%97%E5%A7%86</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E6%A2%AF%E8%8B%A5%E5%B0%94</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E9%9C%8D%E7%89%B9%E6%9E%97</t>
   </si>
   <si>
-    <t>哈羅德·霍特林</t>
+    <t>哈罗德·霍特林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -779,9 +776,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E5%AE%BE</t>
   </si>
   <si>
-    <t>詹姆士·托宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B6%8B%E9%80%9A%E5%A4%AB</t>
   </si>
   <si>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%BE%A4%E5%BC%98%E6%96%87</t>
   </si>
   <si>
-    <t>宇澤弘文</t>
+    <t>宇泽弘文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%AF%BA%E4%BB%80%C2%B7%E7%A7%91%E5%B0%94%E5%A5%88</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%C2%B7W%C2%B7%E5%96%AC%E6%A0%B9%E6%A3%AE</t>
   </si>
   <si>
-    <t>戴爾·W·喬根森</t>
+    <t>戴尔·W·乔根森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B0%BC%C2%B7%E9%98%BF%E7%89%B9%E9%87%91%E6%A3%AE</t>
@@ -851,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E5%BE%B7%E6%9B%BC%C2%B7%E6%91%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·哈德曼·摩爾</t>
+    <t>约翰·哈德曼·摩尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -887,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -899,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
@@ -1952,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1978,10 +1972,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2007,10 +2001,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2036,10 +2030,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2065,10 +2059,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2094,10 +2088,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2123,10 +2117,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -2152,10 +2146,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -2181,10 +2175,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2210,10 +2204,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2239,10 +2233,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2268,10 +2262,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2297,10 +2291,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2326,10 +2320,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2355,10 +2349,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2384,10 +2378,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2413,10 +2407,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2442,10 +2436,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2471,10 +2465,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2500,10 +2494,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2529,10 +2523,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2558,10 +2552,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2587,10 +2581,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2616,10 +2610,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2645,10 +2639,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2674,10 +2668,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2703,10 +2697,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2732,10 +2726,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2761,10 +2755,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2790,10 +2784,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2819,10 +2813,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2848,10 +2842,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2877,10 +2871,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2906,10 +2900,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2935,10 +2929,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2964,10 +2958,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2993,10 +2987,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3022,10 +3016,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3051,10 +3045,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3080,10 +3074,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3109,10 +3103,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3138,10 +3132,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3167,10 +3161,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3196,10 +3190,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3254,10 +3248,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3283,10 +3277,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3312,10 +3306,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3341,10 +3335,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3370,10 +3364,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>13</v>
@@ -3399,10 +3393,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3428,10 +3422,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3457,10 +3451,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3486,10 +3480,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3515,10 +3509,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3544,10 +3538,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3573,10 +3567,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3602,10 +3596,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3631,10 +3625,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3660,10 +3654,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3689,10 +3683,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3718,10 +3712,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3747,10 +3741,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3776,10 +3770,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3805,10 +3799,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3834,10 +3828,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3863,10 +3857,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3892,10 +3886,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3921,10 +3915,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3950,10 +3944,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3979,10 +3973,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4008,10 +4002,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4037,10 +4031,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4066,10 +4060,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4124,10 +4118,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4153,10 +4147,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4182,10 +4176,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4211,10 +4205,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4240,10 +4234,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4269,10 +4263,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4298,10 +4292,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4327,10 +4321,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4356,10 +4350,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4385,10 +4379,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4414,10 +4408,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4443,10 +4437,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4472,10 +4466,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4501,10 +4495,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4530,10 +4524,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4559,10 +4553,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4588,10 +4582,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4617,10 +4611,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4646,10 +4640,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4675,10 +4669,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4704,10 +4698,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4733,10 +4727,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4762,10 +4756,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4791,10 +4785,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4820,10 +4814,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4849,10 +4843,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4878,10 +4872,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4965,10 +4959,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4994,10 +4988,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5023,10 +5017,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5052,10 +5046,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5081,10 +5075,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" t="s">
         <v>63</v>
-      </c>
-      <c r="F132" t="s">
-        <v>64</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5110,10 +5104,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>60</v>
+      </c>
+      <c r="F133" t="s">
         <v>61</v>
-      </c>
-      <c r="F133" t="s">
-        <v>62</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5139,10 +5133,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" t="s">
         <v>81</v>
-      </c>
-      <c r="F134" t="s">
-        <v>82</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5168,10 +5162,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" t="s">
         <v>65</v>
-      </c>
-      <c r="F135" t="s">
-        <v>66</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5197,10 +5191,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" t="s">
         <v>73</v>
-      </c>
-      <c r="F136" t="s">
-        <v>74</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5226,10 +5220,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" t="s">
         <v>103</v>
-      </c>
-      <c r="F137" t="s">
-        <v>104</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5255,10 +5249,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>70</v>
+      </c>
+      <c r="F138" t="s">
         <v>71</v>
-      </c>
-      <c r="F138" t="s">
-        <v>72</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5284,10 +5278,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>112</v>
+      </c>
+      <c r="F139" t="s">
         <v>113</v>
-      </c>
-      <c r="F139" t="s">
-        <v>114</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5313,10 +5307,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5342,10 +5336,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>94</v>
+      </c>
+      <c r="F141" t="s">
         <v>95</v>
-      </c>
-      <c r="F141" t="s">
-        <v>96</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5371,10 +5365,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>104</v>
+      </c>
+      <c r="F142" t="s">
         <v>105</v>
-      </c>
-      <c r="F142" t="s">
-        <v>106</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5400,10 +5394,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>108</v>
+      </c>
+      <c r="F143" t="s">
         <v>109</v>
-      </c>
-      <c r="F143" t="s">
-        <v>110</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5429,10 +5423,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5458,10 +5452,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F145" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5487,10 +5481,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>172</v>
+      </c>
+      <c r="F146" t="s">
         <v>173</v>
-      </c>
-      <c r="F146" t="s">
-        <v>174</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5516,10 +5510,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>100</v>
+      </c>
+      <c r="F147" t="s">
         <v>101</v>
-      </c>
-      <c r="F147" t="s">
-        <v>102</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5545,10 +5539,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F148" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5574,10 +5568,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F149" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5603,10 +5597,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>132</v>
+      </c>
+      <c r="F150" t="s">
         <v>133</v>
-      </c>
-      <c r="F150" t="s">
-        <v>134</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5632,10 +5626,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F151" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5661,10 +5655,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>140</v>
+      </c>
+      <c r="F152" t="s">
         <v>141</v>
-      </c>
-      <c r="F152" t="s">
-        <v>142</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5690,10 +5684,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>146</v>
+      </c>
+      <c r="F153" t="s">
         <v>147</v>
-      </c>
-      <c r="F153" t="s">
-        <v>148</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5719,10 +5713,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F154" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5748,10 +5742,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F155" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5777,10 +5771,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" t="s">
         <v>185</v>
-      </c>
-      <c r="F156" t="s">
-        <v>186</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5806,10 +5800,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F157" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5835,10 +5829,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F158" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5864,10 +5858,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>200</v>
+      </c>
+      <c r="F159" t="s">
         <v>201</v>
-      </c>
-      <c r="F159" t="s">
-        <v>202</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5893,10 +5887,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F160" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5922,10 +5916,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>174</v>
+      </c>
+      <c r="F161" t="s">
         <v>175</v>
-      </c>
-      <c r="F161" t="s">
-        <v>176</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -5951,10 +5945,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F162" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -5980,10 +5974,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>196</v>
+      </c>
+      <c r="F163" t="s">
         <v>197</v>
-      </c>
-      <c r="F163" t="s">
-        <v>198</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6009,10 +6003,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>176</v>
+      </c>
+      <c r="F164" t="s">
         <v>177</v>
-      </c>
-      <c r="F164" t="s">
-        <v>178</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6038,10 +6032,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F165" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6067,10 +6061,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>206</v>
+      </c>
+      <c r="F166" t="s">
         <v>207</v>
-      </c>
-      <c r="F166" t="s">
-        <v>208</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6096,10 +6090,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>144</v>
+      </c>
+      <c r="F167" t="s">
         <v>145</v>
-      </c>
-      <c r="F167" t="s">
-        <v>146</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6125,10 +6119,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F168" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -6154,10 +6148,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F169" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6183,10 +6177,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F170" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6212,10 +6206,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F171" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6241,10 +6235,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F172" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6270,10 +6264,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F173" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6299,10 +6293,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F174" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6328,10 +6322,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F175" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6357,10 +6351,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F176" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6386,10 +6380,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F177" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G177" t="n">
         <v>6</v>
@@ -6415,10 +6409,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>295</v>
+      </c>
+      <c r="F178" t="s">
         <v>297</v>
-      </c>
-      <c r="F178" t="s">
-        <v>299</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
